--- a/stat_fism_italia_triennio_datawrapper.xlsx
+++ b/stat_fism_italia_triennio_datawrapper.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/FISM/2023/output-2023-04-27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108707EF-97AA-E646-8FA1-C96D7242A28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7FEF6-9CE4-334A-A4DA-B48E6AF22E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="5520" windowWidth="24040" windowHeight="11940" activeTab="3" xr2:uid="{C3B975F4-32F9-E84A-8EF6-7854858255B4}"/>
+    <workbookView xWindow="19660" yWindow="500" windowWidth="16520" windowHeight="18700" xr2:uid="{C3B975F4-32F9-E84A-8EF6-7854858255B4}"/>
   </bookViews>
   <sheets>
     <sheet name="perc_pub" sheetId="1" r:id="rId1"/>
     <sheet name="if" sheetId="2" r:id="rId2"/>
     <sheet name="altmetric" sheetId="3" r:id="rId3"/>
     <sheet name="cima_index" sheetId="4" r:id="rId4"/>
+    <sheet name="cit" sheetId="5" r:id="rId5"/>
+    <sheet name="reccit" sheetId="6" r:id="rId6"/>
+    <sheet name="fcr" sheetId="7" r:id="rId7"/>
+    <sheet name="rcr" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
   <si>
     <t>covid</t>
   </si>
@@ -420,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AEB20E-F44D-5746-94F2-CA5631F0FC9D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +517,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60951AF5-DE51-2247-9B96-1DDD1B0D3D75}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,4 +813,404 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA1EDA2-7D6B-344B-831C-B3692E87EE94}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>13.38</v>
+      </c>
+      <c r="C2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>13.96</v>
+      </c>
+      <c r="C3">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>9.84</v>
+      </c>
+      <c r="C4">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8.24</v>
+      </c>
+      <c r="C5">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="C6">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>16.5</v>
+      </c>
+      <c r="C8">
+        <v>10.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A52EBDF-231C-5346-BEF0-A592C0D82944}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>12.34</v>
+      </c>
+      <c r="C2">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>13.52</v>
+      </c>
+      <c r="C3">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8.74</v>
+      </c>
+      <c r="C4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7.46</v>
+      </c>
+      <c r="C5">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>36.81</v>
+      </c>
+      <c r="C6">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>14.75</v>
+      </c>
+      <c r="C8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A88E6-DA3E-B547-8C0C-A39EE594920B}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6.87</v>
+      </c>
+      <c r="C2">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>7.9</v>
+      </c>
+      <c r="C3">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5.76</v>
+      </c>
+      <c r="C4">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C5">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>34.75</v>
+      </c>
+      <c r="C6">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.94</v>
+      </c>
+      <c r="C7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7.07</v>
+      </c>
+      <c r="C8">
+        <v>7.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29B2F79-82A7-0F48-82D3-0FE8FCFC718F}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.38</v>
+      </c>
+      <c r="C2">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C4">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.9</v>
+      </c>
+      <c r="C5">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10.45</v>
+      </c>
+      <c r="C6">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.42</v>
+      </c>
+      <c r="C7">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2.59</v>
+      </c>
+      <c r="C8">
+        <v>3.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>